--- a/medicine/Sexualité et sexologie/Lili_Boisvert/Lili_Boisvert.xlsx
+++ b/medicine/Sexualité et sexologie/Lili_Boisvert/Lili_Boisvert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lili Boisvert, née en 1985, est une journaliste, chroniqueuse, autrice et animatrice québécoise.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lili Boisvert naît en 1985[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lili Boisvert naît en 1985.
 Elle étudie en science politique à l'Université de Montréal avant de travailler, de 2009 à 2016, comme journaliste à Radio-Canada pour la division Web et la chaîne RDI. Pendant deux ans, de juin 2013 à juin 2015, elle y tient notamment une chronique pour le blogue Originel affilié à Radio-Canada.
-Depuis avril 2016, elle co-anime et co-écrit avec la journaliste Judith Lussier l'émission Les Brutes diffusée sur Télé-Québec, qui a reçu deux prix Gémeaux en 2018, ceux de la meilleure animation et de la meilleure émission ou série originale produite pour les médias numériques (magazine)[2],[3]. Il s'agit d'une web-série féministe diffusée sur le site de Télé-Québec abordant avec un regard critique une variété d'enjeux sociaux.
-Depuis 2016, elle anime également l'émission Sexplora sur Explora, la plateforme scientifique de Radio-Canada. Elle y aborde des enjeux de sexualité pour démystifier certaines idées reçues[4].
-D’août 2015 à octobre 2018, elle collabore au magazine Urbania par des chroniques, entrevues et reportages sur la sexualité[5].
-Le magazine Elle Québec la place dans son palmarès 2016 des 30 personnalités féminines québécoises « qui ont contribué (...) à la construction d'un monde meilleur et d'une société plus juste »[6].
+Depuis avril 2016, elle co-anime et co-écrit avec la journaliste Judith Lussier l'émission Les Brutes diffusée sur Télé-Québec, qui a reçu deux prix Gémeaux en 2018, ceux de la meilleure animation et de la meilleure émission ou série originale produite pour les médias numériques (magazine),. Il s'agit d'une web-série féministe diffusée sur le site de Télé-Québec abordant avec un regard critique une variété d'enjeux sociaux.
+Depuis 2016, elle anime également l'émission Sexplora sur Explora, la plateforme scientifique de Radio-Canada. Elle y aborde des enjeux de sexualité pour démystifier certaines idées reçues.
+D’août 2015 à octobre 2018, elle collabore au magazine Urbania par des chroniques, entrevues et reportages sur la sexualité.
+Le magazine Elle Québec la place dans son palmarès 2016 des 30 personnalités féminines québécoises « qui ont contribué (...) à la construction d'un monde meilleur et d'une société plus juste ».
 </t>
         </is>
       </c>
@@ -547,11 +561,13 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle publie en 2017 son premier livre, Le principe du cumshot. Le désir des femmes sous l'emprise des clichés sexuels[7]. Elle y traite avec un regard critique de la représentation sociale de la sexualité féminine. Elle cherche à défaire des stéréotypes sur les genres et à redonner du pouvoir aux femmes pour repenser leur rapport à la sexualité[8]. Le principe du cumshot est finaliste au Prix des libraires du Québec[9].
-En juin 2020, elle publie chez VLB éditeur Le prince, premier tome d'une trilogie de fantasy, Anan, où l'héroïne, Chaolih, est chargée de sauver le prince[10]. Le second tome, La prêtresse, a paru en 2021[11].
-En mars 2022, elle aborde la mécanique et les effets dévastateurs d'une relation toxique dans le roman Match, également publié chez VLB éditeur[12],[13].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle publie en 2017 son premier livre, Le principe du cumshot. Le désir des femmes sous l'emprise des clichés sexuels. Elle y traite avec un regard critique de la représentation sociale de la sexualité féminine. Elle cherche à défaire des stéréotypes sur les genres et à redonner du pouvoir aux femmes pour repenser leur rapport à la sexualité. Le principe du cumshot est finaliste au Prix des libraires du Québec.
+En juin 2020, elle publie chez VLB éditeur Le prince, premier tome d'une trilogie de fantasy, Anan, où l'héroïne, Chaolih, est chargée de sauver le prince. Le second tome, La prêtresse, a paru en 2021.
+En mars 2022, elle aborde la mécanique et les effets dévastateurs d'une relation toxique dans le roman Match, également publié chez VLB éditeur,.
 </t>
         </is>
       </c>
